--- a/data/trans_dic/P22$concerEmp-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01163069329368367</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.009891500144549351</v>
+        <v>0.009891500144549353</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.007815404267264511</v>
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00300955530831457</v>
+        <v>0.002992754615313899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003292947476302947</v>
+        <v>0.003310091143852272</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.002542172051264205</v>
+        <v>0.002586447696688951</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001906875962746066</v>
+        <v>0.001891856425808479</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001505967517773734</v>
+        <v>0.001524010798124292</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002447379537147066</v>
+        <v>0.002449874455551537</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001965390477144585</v>
+        <v>0.001668997256108432</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02325611843222564</v>
+        <v>0.02289875674652005</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0252790224617901</v>
+        <v>0.02750966845499263</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0307159971973033</v>
+        <v>0.03252241383634445</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02642141106289129</v>
+        <v>0.02827261308756867</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02730349659596433</v>
+        <v>0.02668353918826605</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.02122079445301902</v>
+        <v>0.02040521814896078</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.008389551750956237</v>
+        <v>0.008253422691281716</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01661783390233504</v>
+        <v>0.01799040130611173</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01389546868051414</v>
+        <v>0.01251718860443377</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01797570597626015</v>
+        <v>0.02053437329448746</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01606139655129122</v>
+        <v>0.01437760466786885</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.006905192756597504</v>
+        <v>0.006905192756597505</v>
       </c>
     </row>
     <row r="8">
@@ -840,14 +840,14 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01006933683107964</v>
+        <v>0.008544525298328937</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002110979062481025</v>
+        <v>0.003719980961359126</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.004186363083532112</v>
+        <v>0.004310961788583875</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -860,14 +860,14 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005859782592186986</v>
+        <v>0.00520440114863516</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00215451744746615</v>
+        <v>0.002047557139926597</v>
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
-        <v>0.002912489835212109</v>
+        <v>0.00290954906827446</v>
       </c>
     </row>
     <row r="9">
@@ -878,34 +878,34 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04003648594099003</v>
+        <v>0.03719631374107814</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02989897247940873</v>
+        <v>0.02915083028456877</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.02626955674296952</v>
+        <v>0.02558219492475257</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.008702631301674247</v>
+        <v>0.009819254069777664</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01005431790993581</v>
+        <v>0.009256871999300722</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.007743135041813573</v>
+        <v>0.007777287581303667</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02100493846531832</v>
+        <v>0.01995424712066809</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01649356599958066</v>
+        <v>0.01659891722379533</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.0139088801674992</v>
+        <v>0.01329968935386588</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.007840548540948478</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.003556683324722593</v>
+        <v>0.003556683324722592</v>
       </c>
     </row>
     <row r="11">
@@ -978,17 +978,17 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002639012755115516</v>
+        <v>0.002619864115097736</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="n">
-        <v>0.001419171160416813</v>
+        <v>0.001463591844211341</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002676624041596039</v>
+        <v>0.002720767879737914</v>
       </c>
       <c r="N11" s="5" t="n">
         <v>0</v>
@@ -1003,33 +1003,33 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01754658052906535</v>
+        <v>0.01746985992658678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02594330436476523</v>
+        <v>0.02814678162862491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01822753332039041</v>
+        <v>0.01816781603219182</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.01836894723552345</v>
+        <v>0.01771328029126593</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02274401996626592</v>
+        <v>0.02207835279520921</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02317045587712914</v>
+        <v>0.01758911463097139</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.01452069134900598</v>
+        <v>0.01310562634227077</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01691180848233864</v>
+        <v>0.01817595420039533</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01243401376237619</v>
+        <v>0.01279375010098437</v>
       </c>
     </row>
     <row r="13">
@@ -1065,7 +1065,7 @@
         <v>0.004549628154097127</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.005498948226631847</v>
+        <v>0.005498948226631848</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01255407039321301</v>
@@ -1088,19 +1088,19 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002667246544407793</v>
+        <v>0.002739120020701883</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005373056799057421</v>
+        <v>0.005132404261233427</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01110490921063255</v>
+        <v>0.009902046925311025</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007732600321367414</v>
+        <v>0.007232604009098673</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005194229293114642</v>
+        <v>0.005202033892175013</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
@@ -1109,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.002037518752754369</v>
+        <v>0.001997764668839847</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.005501496112014581</v>
+        <v>0.005659978769229327</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.00399361647991061</v>
+        <v>0.00411275864244492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.00642672260301631</v>
+        <v>0.006779085089795086</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.00612210551373668</v>
+        <v>0.005980706720904587</v>
       </c>
     </row>
     <row r="15">
@@ -1132,40 +1132,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02966792667634091</v>
+        <v>0.0277558203681218</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03287093810438688</v>
+        <v>0.02998281744417514</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04884642943614067</v>
+        <v>0.04786797698175121</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05206254904159133</v>
+        <v>0.04941631414126678</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03273499880301522</v>
+        <v>0.0306059353199749</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01837996134993023</v>
+        <v>0.01806844323207235</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01563478331327351</v>
+        <v>0.01626745883414157</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01679353887650969</v>
+        <v>0.01488056394552451</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02284278557683031</v>
+        <v>0.022322815739132</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01983541162771317</v>
+        <v>0.01904124040286661</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02673679358671511</v>
+        <v>0.0264902245767091</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02811358864263767</v>
+        <v>0.02686973309554829</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02674877775420986</v>
+        <v>0.02739354286051338</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.004627868100717873</v>
+        <v>0.004638364958098176</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01965910869570379</v>
+        <v>0.01908095764857512</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -1262,34 +1262,34 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02849925809743169</v>
+        <v>0.03225686751638222</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09197128824685676</v>
+        <v>0.0932574661415727</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.01600765350072556</v>
+        <v>0.01738421402316722</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.04582656186150101</v>
+        <v>0.04217452097385623</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02198014046421924</v>
+        <v>0.01838003521350788</v>
       </c>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.01593156662214158</v>
+        <v>0.0155838517377065</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05524326129347293</v>
+        <v>0.0562491519210197</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01041160758236942</v>
+        <v>0.01144602293757428</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.008145075265026343</v>
+        <v>0.01130336309602409</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1325,7 @@
         <v>0.00372752649183009</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.002299223774557898</v>
+        <v>0.002299223774557897</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.002043746204762708</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.001701725446143197</v>
+        <v>0.001710574100037997</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -1386,34 +1386,34 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02104575681847607</v>
+        <v>0.02140601398752677</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0255867891495854</v>
+        <v>0.02537218028457906</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.01818569449728344</v>
+        <v>0.02040794422950104</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01885348962134474</v>
+        <v>0.01850454416307907</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01130741490703575</v>
+        <v>0.01336598702337075</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01486715737136383</v>
+        <v>0.01020148974406862</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01385231750254269</v>
+        <v>0.01455692955791606</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.009429512820289596</v>
+        <v>0.00951586299087261</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.006463871961450528</v>
+        <v>0.005683171414679359</v>
       </c>
     </row>
     <row r="22">
@@ -1461,7 +1461,7 @@
         <v>0.004385719609785409</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.02691852081963261</v>
+        <v>0.0269185208196326</v>
       </c>
     </row>
     <row r="23">
@@ -1472,16 +1472,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003110442786464984</v>
+        <v>0.003235634372598576</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.001495162349503016</v>
+        <v>0.00153607957151442</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02335889757336148</v>
+        <v>0.02302216438732314</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
@@ -1490,22 +1490,22 @@
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.001451871769253637</v>
+        <v>0.00145657120266305</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01073449790307148</v>
+        <v>0.01011961070866759</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.002976730639093575</v>
+        <v>0.002831777771120332</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.001408838404622177</v>
+        <v>0.001436210655043191</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.001542456398862397</v>
+        <v>0.001526912194535291</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01875844354092045</v>
+        <v>0.01895374850361838</v>
       </c>
     </row>
     <row r="24">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01978747647574119</v>
+        <v>0.01862650645052615</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01515718512895275</v>
+        <v>0.01522576847620121</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01667944823350421</v>
+        <v>0.015767761548087</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05556954601764913</v>
+        <v>0.05886513977513053</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01142600778501887</v>
+        <v>0.01118511247948099</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.007024222609300724</v>
+        <v>0.007073789142213423</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01174530909882989</v>
+        <v>0.01187830745123217</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02860397709005034</v>
+        <v>0.02881493054597083</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01208825958749075</v>
+        <v>0.01150504751338593</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.008123547755865759</v>
+        <v>0.008740747693591943</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01085458432211659</v>
+        <v>0.01092139559477985</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03766261083958996</v>
+        <v>0.03743957712063476</v>
       </c>
     </row>
     <row r="25">
@@ -1585,7 +1585,7 @@
         <v>0.002722326334472525</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.006304590217580896</v>
+        <v>0.006304590217580897</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.03726289384052185</v>
@@ -1597,7 +1597,7 @@
         <v>0.002273164107638832</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.007523761005222854</v>
+        <v>0.007523761005222853</v>
       </c>
     </row>
     <row r="26">
@@ -1608,19 +1608,19 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04939925921197433</v>
+        <v>0.05029860348902124</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.003768707130039481</v>
+        <v>0.003813359256898744</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.002953636407536172</v>
+        <v>0.002916186254611884</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.004413675390600211</v>
+        <v>0.004529813431288185</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>0</v>
@@ -1629,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.002572178839609344</v>
+        <v>0.002726377264567341</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02829330820895259</v>
+        <v>0.02842510993301279</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.002609097748770973</v>
+        <v>0.002618090396021399</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0006763588387727395</v>
+        <v>0.0006762803746854653</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.004065750389138637</v>
+        <v>0.004047214578915799</v>
       </c>
     </row>
     <row r="27">
@@ -1652,40 +1652,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08580335839556612</v>
+        <v>0.08663518472630959</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02224515806072809</v>
+        <v>0.02094052057422716</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.009053546076635768</v>
+        <v>0.008994322330647514</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01804838160315389</v>
+        <v>0.01842132601584051</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0189402659693322</v>
+        <v>0.01979401114311598</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.009417114446082484</v>
+        <v>0.008792266199379306</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.009317953481292158</v>
+        <v>0.01009588708071151</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0125123105754432</v>
+        <v>0.01256772119743019</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04751103619997966</v>
+        <v>0.04754394707338491</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01207308662121198</v>
+        <v>0.0126840269933979</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.006059094603402164</v>
+        <v>0.007206990322863914</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01234362840969215</v>
+        <v>0.01232263454377285</v>
       </c>
     </row>
     <row r="28">
@@ -1733,7 +1733,7 @@
         <v>0.004609368116093737</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.0106551126435471</v>
+        <v>0.01065511264354709</v>
       </c>
     </row>
     <row r="29">
@@ -1744,40 +1744,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01747109649759849</v>
+        <v>0.01758836350316591</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.008311914374918064</v>
+        <v>0.007977928802253721</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.003220886151698827</v>
+        <v>0.003220187061053143</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01082612728360482</v>
+        <v>0.01086901119641544</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.003285782435566245</v>
+        <v>0.003426860698334333</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.001927806807992076</v>
+        <v>0.001950002685711841</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.001854971644345505</v>
+        <v>0.001948241373479634</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.004669995825543813</v>
+        <v>0.004692614821932769</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01115108580643703</v>
+        <v>0.01129066042549608</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.005648231148541239</v>
+        <v>0.005670883796436242</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.003087086488226063</v>
+        <v>0.003188691350761366</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.008327012584841753</v>
+        <v>0.008079650986775846</v>
       </c>
     </row>
     <row r="30">
@@ -1788,40 +1788,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02827783261126601</v>
+        <v>0.02794237233392633</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01617548512124959</v>
+        <v>0.01583695097245395</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.00933038880415319</v>
+        <v>0.009375651668603633</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02016722027223251</v>
+        <v>0.02021345184349523</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.008649676530624028</v>
+        <v>0.008369756652897868</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.005905364528320568</v>
+        <v>0.006077675359582728</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.006012708260401874</v>
+        <v>0.005943768694964399</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.009157651861230146</v>
+        <v>0.009438558716016378</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01712282663454348</v>
+        <v>0.0168968003198793</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.01002845098127885</v>
+        <v>0.01017883450505854</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.006631147953833093</v>
+        <v>0.006703680056338122</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.01342514743258105</v>
+        <v>0.01347898649604896</v>
       </c>
     </row>
     <row r="31">
@@ -2099,13 +2099,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -2118,16 +2118,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1248</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="7">
@@ -2138,38 +2138,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6328</v>
+        <v>6230</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7451</v>
+        <v>8108</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9023</v>
+        <v>9554</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8424</v>
+        <v>9015</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7122</v>
+        <v>6960</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>6106</v>
+        <v>5871</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2652</v>
+        <v>2609</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8856</v>
+        <v>9587</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>8087</v>
+        <v>7285</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10453</v>
+        <v>11940</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>10197</v>
+        <v>9128</v>
       </c>
     </row>
     <row r="8">
@@ -2272,14 +2272,14 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4965</v>
+        <v>4213</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1065</v>
+        <v>1877</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>2221</v>
+        <v>2288</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -2292,14 +2292,14 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5842</v>
+        <v>5189</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2216</v>
+        <v>2106</v>
       </c>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="n">
-        <v>3137</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="11">
@@ -2310,34 +2310,34 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19741</v>
+        <v>18341</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15085</v>
+        <v>14708</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>13940</v>
+        <v>13575</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4386</v>
+        <v>4948</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5266</v>
+        <v>4848</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>4232</v>
+        <v>4250</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20942</v>
+        <v>19895</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>16961</v>
+        <v>17069</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>14982</v>
+        <v>14326</v>
       </c>
     </row>
     <row r="12">
@@ -2454,17 +2454,17 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="n">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1748</v>
+        <v>1777</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0</v>
@@ -2479,33 +2479,33 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>5686</v>
+        <v>5661</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8215</v>
+        <v>8913</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5760</v>
+        <v>5741</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>6264</v>
+        <v>6041</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7649</v>
+        <v>7425</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8258</v>
+        <v>6268</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>9657</v>
+        <v>8716</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11043</v>
+        <v>11868</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>8360</v>
+        <v>8602</v>
       </c>
     </row>
     <row r="16">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>951</v>
+        <v>977</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2009</v>
+        <v>1919</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4108</v>
+        <v>3663</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2885</v>
+        <v>2699</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
@@ -2629,19 +2629,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4000</v>
+        <v>4116</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3047</v>
+        <v>3138</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4867</v>
+        <v>5133</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4868</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="19">
@@ -2652,40 +2652,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10577</v>
+        <v>9895</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12293</v>
+        <v>11213</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18071</v>
+        <v>17709</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19427</v>
+        <v>18439</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12132</v>
+        <v>11343</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7149</v>
+        <v>7028</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6055</v>
+        <v>6300</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7086</v>
+        <v>6279</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>16610</v>
+        <v>16231</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>15133</v>
+        <v>14527</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>20246</v>
+        <v>20060</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>22353</v>
+        <v>21364</v>
       </c>
     </row>
     <row r="20">
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5687</v>
+        <v>5824</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>8497</v>
+        <v>8247</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
@@ -2826,34 +2826,34 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5794</v>
+        <v>6558</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19555</v>
+        <v>19828</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>3292</v>
+        <v>3575</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>10063</v>
+        <v>9261</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4805</v>
+        <v>4018</v>
       </c>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>6547</v>
+        <v>6405</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>23877</v>
+        <v>24311</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>4475</v>
+        <v>4920</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3526</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>0</v>
@@ -2994,34 +2994,34 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5699</v>
+        <v>5797</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7010</v>
+        <v>6951</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>5093</v>
+        <v>5715</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5149</v>
+        <v>5054</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2982</v>
+        <v>3525</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8161</v>
+        <v>5600</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>7674</v>
+        <v>8065</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>5056</v>
+        <v>5103</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>3455</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="28">
@@ -3124,16 +3124,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1910</v>
+        <v>1987</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>991</v>
+        <v>1018</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>16811</v>
+        <v>16569</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
@@ -3142,22 +3142,22 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>8276</v>
+        <v>7802</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3724</v>
+        <v>3543</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1911</v>
+        <v>1948</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2067</v>
+        <v>2046</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>27963</v>
+        <v>28254</v>
       </c>
     </row>
     <row r="31">
@@ -3168,40 +3168,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12150</v>
+        <v>11437</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10046</v>
+        <v>10091</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10901</v>
+        <v>10305</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>39993</v>
+        <v>42364</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>7279</v>
+        <v>7125</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>4874</v>
+        <v>4908</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>8063</v>
+        <v>8154</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>22053</v>
+        <v>22216</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>15123</v>
+        <v>14394</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>11021</v>
+        <v>11858</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>14545</v>
+        <v>14635</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>56143</v>
+        <v>55810</v>
       </c>
     </row>
     <row r="32">
@@ -3304,19 +3304,19 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>36628</v>
+        <v>37295</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2936</v>
+        <v>2971</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2357</v>
+        <v>2327</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3458</v>
+        <v>3549</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
@@ -3325,19 +3325,19 @@
         <v>0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2136</v>
+        <v>2265</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>43147</v>
+        <v>43348</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4182</v>
+        <v>4197</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>1085</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>6622</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="35">
@@ -3348,40 +3348,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>63621</v>
+        <v>64238</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>17331</v>
+        <v>16315</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>7049</v>
+        <v>7003</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>14404</v>
+        <v>14702</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14840</v>
+        <v>15509</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>7758</v>
+        <v>7244</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>7698</v>
+        <v>8341</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>10393</v>
+        <v>10439</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>72454</v>
+        <v>72504</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>19353</v>
+        <v>20332</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>9723</v>
+        <v>11565</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>20104</v>
+        <v>20070</v>
       </c>
     </row>
     <row r="36">
@@ -3484,40 +3484,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>57133</v>
+        <v>57516</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>28475</v>
+        <v>27331</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>10917</v>
+        <v>10915</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>38246</v>
+        <v>38398</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>11097</v>
+        <v>11573</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>6860</v>
+        <v>6939</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>6564</v>
+        <v>6894</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>17435</v>
+        <v>17520</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>74125</v>
+        <v>75052</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>39448</v>
+        <v>39606</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>21388</v>
+        <v>22092</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>60506</v>
+        <v>58709</v>
       </c>
     </row>
     <row r="39">
@@ -3528,40 +3528,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>92472</v>
+        <v>91375</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>55414</v>
+        <v>54254</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>31625</v>
+        <v>31778</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>71246</v>
+        <v>71409</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>29211</v>
+        <v>28266</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>21013</v>
+        <v>21626</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>21277</v>
+        <v>21033</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>34190</v>
+        <v>35239</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>113821</v>
+        <v>112318</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>70040</v>
+        <v>71090</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>45942</v>
+        <v>46444</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>97550</v>
+        <v>97941</v>
       </c>
     </row>
     <row r="40">
